--- a/HW7/graphs/hw7_k-means.xlsx
+++ b/HW7/graphs/hw7_k-means.xlsx
@@ -186,124 +186,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>63.7277995054637</c:v>
+                  <c:v>3989.7114994232902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.1560855990055</c:v>
+                  <c:v>2802.18017534103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.288154586459299</c:v>
+                  <c:v>2385.8099749606399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.885956500274503</c:v>
+                  <c:v>2258.1908665823198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.4578384898767</c:v>
+                  <c:v>2217.3078675018101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.250693663870997</c:v>
+                  <c:v>2203.4201135046401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.0626887162204</c:v>
+                  <c:v>2198.6169127612302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.792943519595497</c:v>
+                  <c:v>2196.9596345333598</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.499200327434501</c:v>
+                  <c:v>2196.3561024885098</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.3370769182891</c:v>
+                  <c:v>2196.1000925789399</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.2608653924853</c:v>
+                  <c:v>2196.0098952193998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.207479891258401</c:v>
+                  <c:v>2195.9630035883201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.155648546478602</c:v>
+                  <c:v>2195.9325726164502</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.107927792644901</c:v>
+                  <c:v>2195.91224539309</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.058314892979098</c:v>
+                  <c:v>2195.8987881821399</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.017741939455803</c:v>
+                  <c:v>2195.8861905397098</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.9801802956488</c:v>
+                  <c:v>2195.87598454196</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.942283107512203</c:v>
+                  <c:v>2195.8680508761199</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35.908152978367802</c:v>
+                  <c:v>2195.8624900068498</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35.878961441812201</c:v>
+                  <c:v>2195.8585638109798</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.852535205745703</c:v>
+                  <c:v>2195.8569429444001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35.831592917481601</c:v>
+                  <c:v>2195.8555166952701</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35.813592995235702</c:v>
+                  <c:v>2195.85434420295</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>35.797915602173198</c:v>
+                  <c:v>2195.85368968692</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>35.786389214771702</c:v>
+                  <c:v>2195.8531288721001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>35.775046318626202</c:v>
+                  <c:v>2195.8528046299102</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35.765981536967601</c:v>
+                  <c:v>2195.8525228081198</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35.758775676130597</c:v>
+                  <c:v>2195.8523443386198</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>35.753020084754397</c:v>
+                  <c:v>2195.8523052199198</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>35.7487560796311</c:v>
+                  <c:v>2195.8521795575898</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.744866460897903</c:v>
+                  <c:v>2195.8521286559098</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>35.741322918117802</c:v>
+                  <c:v>2195.8520420619002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>35.739180186587099</c:v>
+                  <c:v>2195.8519282295001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>35.736876714628401</c:v>
+                  <c:v>2195.85186538074</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35.734927837542699</c:v>
+                  <c:v>2195.8518570422998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35.733678803192298</c:v>
+                  <c:v>2195.8518523439002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>35.732662951966198</c:v>
+                  <c:v>2195.8518507375502</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>35.7316829817456</c:v>
+                  <c:v>2195.8518507375502</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>35.730695533849399</c:v>
+                  <c:v>2195.8518507375502</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>35.729775811100602</c:v>
+                  <c:v>2195.8518507375502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,209 +1391,209 @@
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>63.7277995054637</v>
+        <v>3989.7114994232902</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>48.1560855990055</v>
+        <v>2802.18017534103</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>40.288154586459299</v>
+        <v>2385.8099749606399</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>37.885956500274503</v>
+        <v>2258.1908665823198</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>37.4578384898767</v>
+        <v>2217.3078675018101</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>37.250693663870997</v>
+        <v>2203.4201135046401</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>37.0626887162204</v>
+        <v>2198.6169127612302</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>36.792943519595497</v>
+        <v>2196.9596345333598</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>36.499200327434501</v>
+        <v>2196.3561024885098</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>36.3370769182891</v>
+        <v>2196.1000925789399</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>36.2608653924853</v>
+        <v>2196.0098952193998</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>36.207479891258401</v>
+        <v>2195.9630035883201</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>36.155648546478602</v>
+        <v>2195.9325726164502</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>36.107927792644901</v>
+        <v>2195.91224539309</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>36.058314892979098</v>
+        <v>2195.8987881821399</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>36.017741939455803</v>
+        <v>2195.8861905397098</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>35.9801802956488</v>
+        <v>2195.87598454196</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>35.942283107512203</v>
+        <v>2195.8680508761199</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>35.908152978367802</v>
+        <v>2195.8624900068498</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>35.878961441812201</v>
+        <v>2195.8585638109798</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>35.852535205745703</v>
+        <v>2195.8569429444001</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>35.831592917481601</v>
+        <v>2195.8555166952701</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>35.813592995235702</v>
+        <v>2195.85434420295</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>35.797915602173198</v>
+        <v>2195.85368968692</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>35.786389214771702</v>
+        <v>2195.8531288721001</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>35.775046318626202</v>
+        <v>2195.8528046299102</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>35.765981536967601</v>
+        <v>2195.8525228081198</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>35.758775676130597</v>
+        <v>2195.8523443386198</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>35.753020084754397</v>
+        <v>2195.8523052199198</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>35.7487560796311</v>
+        <v>2195.8521795575898</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>35.744866460897903</v>
+        <v>2195.8521286559098</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>35.741322918117802</v>
+        <v>2195.8520420619002</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>35.739180186587099</v>
+        <v>2195.8519282295001</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>35.736876714628401</v>
+        <v>2195.85186538074</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>35.734927837542699</v>
+        <v>2195.8518570422998</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35.733678803192298</v>
+        <v>2195.8518523439002</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>35.732662951966198</v>
+        <v>2195.8518507375502</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>35.7316829817456</v>
+        <v>2195.8518507375502</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>35.730695533849399</v>
+        <v>2195.8518507375502</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>35.729775811100602</v>
+        <v>2195.8518507375502</v>
       </c>
     </row>
   </sheetData>
